--- a/sample_medication.xlsx
+++ b/sample_medication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i871655/Desktop/patient report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5C464-D7F9-D64F-9D0E-24B9E0C22BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72508B88-9937-2749-9C42-9E453DCE7EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16220" xr2:uid="{33214C13-0290-8B44-90EF-A88B3B7ADF8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>honeycole</t>
+  </si>
+  <si>
+    <t>medication: napa, purpose: fever, timing: four months, dosage: twice a day.</t>
+  </si>
+  <si>
+    <t>napa</t>
+  </si>
+  <si>
+    <t>four months</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447C7BFB-02F1-9C4C-85A6-957DF41A8BB5}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +791,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
